--- a/MiilonData/EditoB2_unite3_p40.xlsx
+++ b/MiilonData/EditoB2_unite3_p40.xlsx
@@ -849,7 +849,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F11" si="0" xml:space="preserve"> "{ ""foreign"": """ &amp; A2 &amp; """, ""grammar"": """ &amp; B2 &amp; """, ""pronunciation"": """ &amp; C2 &amp; """, ""meaning"": """ &amp; D2 &amp; """ },"</f>
+        <f t="shared" ref="F2:F17" si="0" xml:space="preserve"> "{ ""foreign"": """ &amp; A2 &amp; """, ""grammar"": """ &amp; B2 &amp; """, ""pronunciation"": """ &amp; C2 &amp; """, ""meaning"": """ &amp; D2 &amp; """ },"</f>
         <v>{ "foreign": "abonnement", "grammar": "nm", "pronunciation": "abonma~", "meaning": "předplatné" },</v>
       </c>
     </row>
@@ -905,6 +905,10 @@
       <c r="D3" t="s">
         <v>42</v>
       </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "s'abonner à qc", "grammar": "vp", "pronunciation": "sabone.", "meaning": "předplatit si co" },</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -919,6 +923,10 @@
       <c r="D4" t="s">
         <v>44</v>
       </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "agence de presse", "grammar": "nf", "pronunciation": "aža~:s d@ pres", "meaning": "tisková agentura" },</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -933,6 +941,10 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "diffusion", "grammar": "nf", "pronunciation": "difüzjo~", "meaning": "rozhlas, vysílání, šíření" },</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -947,6 +959,10 @@
       <c r="D6" t="s">
         <v>48</v>
       </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "hebdomadaire", "grammar": "nm", "pronunciation": "ebdomade:r", "meaning": "týdeník" },</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -961,6 +977,10 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "lecteur", "grammar": "nm", "pronunciation": "lektö:r", "meaning": "čtenář" },</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -975,6 +995,10 @@
       <c r="D8" t="s">
         <v>52</v>
       </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "lectrice", "grammar": "nf", "pronunciation": "lektris", "meaning": "čtenářka" },</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -989,6 +1013,10 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "lectorat", "grammar": "nm", "pronunciation": "lektora", "meaning": "čtenáři" },</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1003,6 +1031,10 @@
       <c r="D10" t="s">
         <v>56</v>
       </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "mensuel", "grammar": "nm", "pronunciation": "ma~sü^el", "meaning": "zaměstnanec s měsíčním platem, měsíčník" },</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1017,6 +1049,10 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "périodique", "grammar": "nm", "pronunciation": "pe.rjodik", "meaning": "periodikum, periodický časopis" },</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1031,6 +1067,10 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "presse à scandale", "grammar": "nf", "pronunciation": "pres a ska~dal", "meaning": "skandální tisk" },</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1045,6 +1085,10 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "presse féminine", "grammar": "nf", "pronunciation": "pres fe.minin", "meaning": "tisk pro ženy" },</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1059,6 +1103,10 @@
       <c r="D14" t="s">
         <v>76</v>
       </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "quotidien", "grammar": "nm", "pronunciation": "kotidje~", "meaning": "deník" },</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1073,6 +1121,10 @@
       <c r="D15" t="s">
         <v>78</v>
       </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "régional, ale, aux", "grammar": "adj", "pronunciation": "re.žjonal", "meaning": "krajský, regionální" },</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1087,8 +1139,12 @@
       <c r="D16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "revue", "grammar": "nf", "pronunciation": "r@vü", "meaning": "revue (časopis)" },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1100,6 +1156,10 @@
       </c>
       <c r="D17" t="s">
         <v>85</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "tirage", "grammar": "nm", "pronunciation": "tira:ž", "meaning": "vlečení, tahání, kopírování, vystavení směnky, tisk, náklad (knihy)" },</v>
       </c>
     </row>
   </sheetData>

--- a/MiilonData/EditoB2_unite3_p40.xlsx
+++ b/MiilonData/EditoB2_unite3_p40.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LA COMMUNICATION" sheetId="2" r:id="rId1"/>
     <sheet name="LA PRESSE" sheetId="4" r:id="rId2"/>
+    <sheet name="LES TYPES D'ARTICLES" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
   <si>
     <t>nm</t>
   </si>
@@ -283,6 +284,123 @@
   </si>
   <si>
     <t>vlečení, tahání, kopírování, vystavení směnky, tisk, náklad (knihy)</t>
+  </si>
+  <si>
+    <t>avoir bonne presse</t>
+  </si>
+  <si>
+    <t>avu^a:r bon pres</t>
+  </si>
+  <si>
+    <t>mít dobrou kritiku</t>
+  </si>
+  <si>
+    <t>une feuille de chou</t>
+  </si>
+  <si>
+    <t>ün föj d@ šu</t>
+  </si>
+  <si>
+    <t>zelný list; plátek (noviny)</t>
+  </si>
+  <si>
+    <t>la rubrique des chiens écrasés</t>
+  </si>
+  <si>
+    <t>rübrik de. šje~ e.kraze.</t>
+  </si>
+  <si>
+    <t>un torchon</t>
+  </si>
+  <si>
+    <t>ö~ toršo~</t>
+  </si>
+  <si>
+    <t>hadr, bezcenný spis</t>
+  </si>
+  <si>
+    <t>billet</t>
+  </si>
+  <si>
+    <t>bije</t>
+  </si>
+  <si>
+    <t>malý novinový článek (často polemický nebo satirický)</t>
+  </si>
+  <si>
+    <t>brève</t>
+  </si>
+  <si>
+    <t>bre:v</t>
+  </si>
+  <si>
+    <t>zprávička (na poslední chvíli nebo nepříliš důležitá)</t>
+  </si>
+  <si>
+    <t>novinová rubrika s příspěvky na různá nepříliš důležitá témata</t>
+  </si>
+  <si>
+    <t>chronique</t>
+  </si>
+  <si>
+    <t>kronik</t>
+  </si>
+  <si>
+    <t>kronika; rubrika (v novinách)</t>
+  </si>
+  <si>
+    <t>critique</t>
+  </si>
+  <si>
+    <t>kritik</t>
+  </si>
+  <si>
+    <t>kritika, odborný posudek</t>
+  </si>
+  <si>
+    <t>dépêche</t>
+  </si>
+  <si>
+    <t>de.peš</t>
+  </si>
+  <si>
+    <t>zpráva (stručná)</t>
+  </si>
+  <si>
+    <t>éditorial</t>
+  </si>
+  <si>
+    <t>e.ditorjal</t>
+  </si>
+  <si>
+    <t>editorial, úvodník</t>
+  </si>
+  <si>
+    <t>enquête</t>
+  </si>
+  <si>
+    <t>a~ket</t>
+  </si>
+  <si>
+    <t>průzkum, anketa</t>
+  </si>
+  <si>
+    <t>entretien</t>
+  </si>
+  <si>
+    <t>a~tr@tje~</t>
+  </si>
+  <si>
+    <t>rozhovor</t>
+  </si>
+  <si>
+    <t>reportage</t>
+  </si>
+  <si>
+    <t>r@porta:ž</t>
+  </si>
+  <si>
+    <t>reportáž</t>
   </si>
 </sst>
 </file>
@@ -846,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F17" si="0" xml:space="preserve"> "{ ""foreign"": """ &amp; A2 &amp; """, ""grammar"": """ &amp; B2 &amp; """, ""pronunciation"": """ &amp; C2 &amp; """, ""meaning"": """ &amp; D2 &amp; """ },"</f>
+        <f t="shared" ref="F2:F22" si="0" xml:space="preserve"> "{ ""foreign"": """ &amp; A2 &amp; """, ""grammar"": """ &amp; B2 &amp; """, ""pronunciation"": """ &amp; C2 &amp; """, ""meaning"": """ &amp; D2 &amp; """ },"</f>
         <v>{ "foreign": "abonnement", "grammar": "nm", "pronunciation": "abonma~", "meaning": "předplatné" },</v>
       </c>
     </row>
@@ -1160,6 +1278,261 @@
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>{ "foreign": "tirage", "grammar": "nm", "pronunciation": "tira:ž", "meaning": "vlečení, tahání, kopírování, vystavení směnky, tisk, náklad (knihy)" },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "avoir bonne presse", "grammar": "", "pronunciation": "avu^a:r bon pres", "meaning": "mít dobrou kritiku" },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "une feuille de chou", "grammar": "", "pronunciation": "ün föj d@ šu", "meaning": "zelný list; plátek (noviny)" },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "la rubrique des chiens écrasés", "grammar": "", "pronunciation": "rübrik de. šje~ e.kraze.", "meaning": "novinová rubrika s příspěvky na různá nepříliš důležitá témata" },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "un torchon", "grammar": "", "pronunciation": "ö~ toršo~", "meaning": "hadr, bezcenný spis" },</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F17" si="0" xml:space="preserve"> "{ ""foreign"": """ &amp; A2 &amp; """, ""grammar"": """ &amp; B2 &amp; """, ""pronunciation"": """ &amp; C2 &amp; """, ""meaning"": """ &amp; D2 &amp; """ },"</f>
+        <v>{ "foreign": "billet", "grammar": "nm", "pronunciation": "bije", "meaning": "malý novinový článek (často polemický nebo satirický)" },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "brève", "grammar": "nf", "pronunciation": "bre:v", "meaning": "zprávička (na poslední chvíli nebo nepříliš důležitá)" },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "chronique", "grammar": "nf", "pronunciation": "kronik", "meaning": "kronika; rubrika (v novinách)" },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "critique", "grammar": "nf", "pronunciation": "kritik", "meaning": "kritika, odborný posudek" },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "dépêche", "grammar": "nf", "pronunciation": "de.peš", "meaning": "zpráva (stručná)" },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "éditorial", "grammar": "nm", "pronunciation": "e.ditorjal", "meaning": "editorial, úvodník" },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "enquête", "grammar": "nf", "pronunciation": "a~ket", "meaning": "průzkum, anketa" },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "entretien", "grammar": "nm", "pronunciation": "a~tr@tje~", "meaning": "rozhovor" },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "reportage", "grammar": "nm", "pronunciation": "r@porta:ž", "meaning": "reportáž" },</v>
       </c>
     </row>
   </sheetData>
